--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched/ifoCAst_error_tables_filtered_first_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched/ifoCAst_error_tables_filtered_first_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2604433726152475</v>
+        <v>0.2480681570822581</v>
       </c>
       <c r="C3">
-        <v>0.9982411624819382</v>
+        <v>0.9558909634454847</v>
       </c>
       <c r="D3">
-        <v>1.607198733857083</v>
+        <v>1.537345962423154</v>
       </c>
       <c r="E3">
-        <v>1.267753419974516</v>
+        <v>1.239897561261879</v>
       </c>
       <c r="F3">
-        <v>1.269909926265738</v>
+        <v>1.242131370099838</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2546407847025797</v>
+        <v>0.2672114150504847</v>
       </c>
       <c r="C4">
-        <v>1.647612693579569</v>
+        <v>1.59686641897852</v>
       </c>
       <c r="D4">
-        <v>10.68039353606461</v>
+        <v>10.20774690982041</v>
       </c>
       <c r="E4">
-        <v>3.268087137159077</v>
+        <v>3.194956480113682</v>
       </c>
       <c r="F4">
-        <v>3.338611865307527</v>
+        <v>3.258685020567687</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
